--- a/sputnik/personal/uch/uch213.xlsx
+++ b/sputnik/personal/uch/uch213.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +73,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -156,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,20 +194,29 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -262,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,10 +310,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -505,17 +519,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C4:C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -524,8 +538,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -539,20 +553,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" s="15">
         <v>43221</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="17">
         <v>50363.74</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="13">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -563,8 +577,8 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A5" s="13">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -575,8 +589,8 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="13">
         <v>43221</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -587,8 +601,8 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="13">
         <v>43221</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -599,8 +613,8 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="13">
         <v>43221</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -611,20 +625,20 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" customHeight="1">
       <c r="A9" s="15">
         <v>43357</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:4">
+      <c r="A10" s="14">
         <v>43586</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -635,13 +649,13 @@
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -655,12 +669,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -669,12 +683,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch213.xlsx
+++ b/sputnik/personal/uch/uch213.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,16 +52,19 @@
   </si>
   <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,6 +221,7 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -278,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,9 +314,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,6 +349,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -519,17 +525,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -538,8 +544,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -553,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>43221</v>
       </c>
@@ -565,7 +571,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>43221</v>
       </c>
@@ -577,7 +583,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>43221</v>
       </c>
@@ -589,7 +595,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43221</v>
       </c>
@@ -601,7 +607,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43221</v>
       </c>
@@ -613,7 +619,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43221</v>
       </c>
@@ -625,7 +631,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43357</v>
       </c>
@@ -637,7 +643,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43586</v>
       </c>
@@ -649,13 +655,19 @@
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10162.5</v>
+      </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -669,12 +681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -683,12 +695,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch213.xlsx
+++ b/sputnik/personal/uch/uch213.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,9 +671,15 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="20">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10837.29</v>
+      </c>
       <c r="D12" s="10"/>
     </row>
   </sheetData>
